--- a/SolicitudHardwareSoftwareFO.xlsx
+++ b/SolicitudHardwareSoftwareFO.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\formulario\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFE2DB6-7AD9-40D4-ADA5-9618E8EE0885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="SolicitudAdquisicion" sheetId="1" r:id="rId1"/>
-    <sheet name="Roles" sheetId="2" r:id="rId2"/>
-    <sheet name="SolicitudServicioTelefonico" sheetId="3" r:id="rId3"/>
-    <sheet name="PrestamoEquipo" sheetId="4" r:id="rId4"/>
+    <sheet name="SolicitudAdquisicion" sheetId="1" r:id="rId4"/>
+    <sheet name="Roles" sheetId="2" r:id="rId5"/>
+    <sheet name="SolicitudServicioTelefonico" sheetId="3" r:id="rId6"/>
+    <sheet name="PrestamoEquipo" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>id_user</t>
   </si>
@@ -131,26 +126,40 @@
   </si>
   <si>
     <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Otros - Hardware</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -161,7 +170,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -171,13 +183,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -191,43 +197,36 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="1" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -517,16 +516,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" customHeight="1" ht="75" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -558,7 +560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -590,7 +592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -622,7 +624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -654,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -686,7 +688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -718,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -750,26 +752,231 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" customHeight="1" ht="25.5">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -777,7 +984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -785,7 +992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -793,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -801,7 +1008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -809,7 +1016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -817,7 +1024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -825,7 +1032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -834,22 +1041,35 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" customHeight="1" ht="60" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,7 +1123,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -917,7 +1137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -931,7 +1151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -945,7 +1165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -959,7 +1179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -973,7 +1193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -987,23 +1207,855 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" customHeight="1" ht="60" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,8 +2099,818 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>